--- a/events/events.xlsx
+++ b/events/events.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\IIChE\a\events\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4303E2E-AD84-4BBE-9141-D6F122AA79F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2016-17" sheetId="1" r:id="rId1"/>
+    <sheet name="2017-18" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,97 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> groupPhotos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> photos</t>
+  </si>
+  <si>
+    <t>10_12-08-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> National Workshop</t>
+  </si>
+  <si>
+    <t>15_19-02-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Workshop on Engineering Optimization Using MATLAB</t>
+  </si>
+  <si>
+    <t>16-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guest Lecture by Dr. Saikat Chakraborty</t>
+  </si>
+  <si>
+    <t>30-03-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Communicative Linkup in Industry Scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> photos </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guest Lecture by Prof. D. P. Rao</t>
+  </si>
+  <si>
+    <t>19-08-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guest Lecture by Dr. N. Shiva Reddy</t>
+  </si>
+  <si>
+    <t>21-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guest Lecture by R. Padma Sree</t>
+  </si>
+  <si>
+    <t>26-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guest Lecture by Dr. Arun Kumar Kota </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guest Lecture by Shashankar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guest Lecture by B. Ravi Kumar</t>
+  </si>
+  <si>
+    <t>23-12-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Guest Lecture by H. C. Guluti</t>
+  </si>
+  <si>
+    <t>25-09-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Green Industries Summit Session-2</t>
+  </si>
+  <si>
+    <t>29-07-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Green Industries Summit Session-1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +145,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +427,247 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A981222-1E3B-49E1-9A76-47B457C71259}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42928</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>